--- a/data/trans_dic/P07_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P07_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2564145145512009</v>
+        <v>0.261279735208457</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1850819736028</v>
+        <v>0.189645821794081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.193001194301015</v>
+        <v>0.1937276482588746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2726741425000797</v>
+        <v>0.2704836492132869</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.405422554649853</v>
+        <v>0.4042015974135437</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3303424762898466</v>
+        <v>0.3298297239303078</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2898761870849098</v>
+        <v>0.2895825979325156</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.34221965305111</v>
+        <v>0.3423348923822502</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3578623410633494</v>
+        <v>0.3578747381141767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2672582579507929</v>
+        <v>0.2684381626150285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2493860336452561</v>
+        <v>0.2521664613451569</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3196360794604641</v>
+        <v>0.3259412907082241</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3347345331197911</v>
+        <v>0.3386437745091885</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2389896099050921</v>
+        <v>0.241689576406316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2412963225937985</v>
+        <v>0.2403788190797757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3572961523675995</v>
+        <v>0.3551963870768247</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4708104951266959</v>
+        <v>0.4734617030037226</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3896404204359363</v>
+        <v>0.3882357232939427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3449940700563544</v>
+        <v>0.3437786380401763</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4088458763119034</v>
+        <v>0.4102208608780555</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4076761842189175</v>
+        <v>0.4063314953066069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3066170414773627</v>
+        <v>0.3078687214109995</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2885816891590554</v>
+        <v>0.2884524379953529</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3737024397241514</v>
+        <v>0.3769124863355443</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1407771177764012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1952706229895513</v>
+        <v>0.1952706229895512</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2608026916440391</v>
@@ -833,7 +833,7 @@
         <v>0.1772495563740924</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2411046485158506</v>
+        <v>0.2411046485158505</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1297768484932255</v>
+        <v>0.1273881385270771</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1355019198656922</v>
+        <v>0.1362438755337974</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1194489027585387</v>
+        <v>0.1168244305977422</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1701994620913116</v>
+        <v>0.1716503796312151</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2340030780725646</v>
+        <v>0.2378228023476014</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2417788569050101</v>
+        <v>0.2404810651959234</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1830132597998057</v>
+        <v>0.1839009878603635</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2599563524725815</v>
+        <v>0.2574491060177568</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1849732967924138</v>
+        <v>0.1881757312480539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1981318105281999</v>
+        <v>0.1954092346947171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1599782288299418</v>
+        <v>0.1604258433229263</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2239265048624975</v>
+        <v>0.224625865547809</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1724908395083218</v>
+        <v>0.1700505843924029</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1849366663118192</v>
+        <v>0.1852721503533458</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1661140322121516</v>
+        <v>0.1639304857593802</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2228865849711399</v>
+        <v>0.2239081163817558</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.288007925341549</v>
+        <v>0.2917269199582989</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2965945403230905</v>
+        <v>0.2967809303921639</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2398410547040146</v>
+        <v>0.2382481653236422</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.30178525593214</v>
+        <v>0.3011628334006297</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2224072271763878</v>
+        <v>0.2209572174173119</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2358597868165704</v>
+        <v>0.233940278295887</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1945712396175442</v>
+        <v>0.1964542194747467</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2583745413449395</v>
+        <v>0.2585489566403531</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09411870200236824</v>
+        <v>0.09208899870842321</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1263173753573701</v>
+        <v>0.1247779638280083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09629132050772733</v>
+        <v>0.09697710122174469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.116224951881835</v>
+        <v>0.1168380290990984</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1857379113929944</v>
+        <v>0.1851746226504976</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1687764460854994</v>
+        <v>0.1699161804360468</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1672496128476792</v>
+        <v>0.166577753277192</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1857596154651168</v>
+        <v>0.1866973113255348</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1419566645734997</v>
+        <v>0.1415770314280521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1527811668991443</v>
+        <v>0.1537254087486036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1369476350540244</v>
+        <v>0.1374644268635496</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1573865915518463</v>
+        <v>0.1562709035689203</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1292940031304181</v>
+        <v>0.1286225793491606</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1768208631976491</v>
+        <v>0.1765017843102791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.140337927529976</v>
+        <v>0.1419838168889528</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1560915044995511</v>
+        <v>0.1584389806548728</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2409368542378582</v>
+        <v>0.2381243202363043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2235884048173022</v>
+        <v>0.2272174605805935</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2279116104837721</v>
+        <v>0.2257675045881825</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2262642210242424</v>
+        <v>0.2286990546846386</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1738509049023325</v>
+        <v>0.1749798605617855</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1919471635253665</v>
+        <v>0.189788571987471</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.175910284877399</v>
+        <v>0.1766578225645679</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1858303513450397</v>
+        <v>0.1854099134320892</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06935870124477192</v>
+        <v>0.07026297577232207</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09229926214746978</v>
+        <v>0.09423372088703813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08960349915710122</v>
+        <v>0.08912170878790728</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1035685287081878</v>
+        <v>0.1034332115967136</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1059674134317158</v>
+        <v>0.1109608586617161</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1429685990267041</v>
+        <v>0.1458456410844775</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1347149220269141</v>
+        <v>0.1348190705665172</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1299886813801543</v>
+        <v>0.1310258407207607</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0975600327473858</v>
+        <v>0.09495502682266091</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1264198893630579</v>
+        <v>0.1267004908799349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1226558783604984</v>
+        <v>0.1213205035474667</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1218236700139736</v>
+        <v>0.1212833330441392</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1254035107880747</v>
+        <v>0.1235764463003514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1550231055951945</v>
+        <v>0.1577626890540437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1489603921954447</v>
+        <v>0.1483957445463612</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1477972461146785</v>
+        <v>0.146811880497741</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1870504334612723</v>
+        <v>0.1886921893284534</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2198336500385412</v>
+        <v>0.2217776663114206</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2066716152532959</v>
+        <v>0.2046187466011982</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1672494325861937</v>
+        <v>0.1679316676341893</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1446537205384898</v>
+        <v>0.140811017337469</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1770729333186001</v>
+        <v>0.1750633834921094</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1680717349492745</v>
+        <v>0.1672042821983376</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1503548364012196</v>
+        <v>0.1493050814301545</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1417783598649584</v>
+        <v>0.142708200230111</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1535156434073702</v>
+        <v>0.1529127170092578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1450366194507256</v>
+        <v>0.1456042981392758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1631269603014399</v>
+        <v>0.1610041892116602</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2673054094131325</v>
+        <v>0.2674742243617195</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2512682602591212</v>
+        <v>0.2513260751500251</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2233347243090006</v>
+        <v>0.2243117815760442</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2317069063311327</v>
+        <v>0.2309509675007346</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2098190547825599</v>
+        <v>0.2081546586775087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2081614618756385</v>
+        <v>0.2078174934310204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1882886999903705</v>
+        <v>0.188717941696325</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2009939197965319</v>
+        <v>0.2006038844163918</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1672465973752782</v>
+        <v>0.169035770972193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1816684140657699</v>
+        <v>0.1803790413228706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1694402303911119</v>
+        <v>0.1709548356625603</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1864987482318735</v>
+        <v>0.1862137709139198</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2974814759414949</v>
+        <v>0.2978288939079651</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2823108891436955</v>
+        <v>0.2815866591012687</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2543848830660643</v>
+        <v>0.2527770186950937</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2549406076446976</v>
+        <v>0.253807378854372</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2311922905531223</v>
+        <v>0.2293530057857271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2288396108192565</v>
+        <v>0.2274687379749702</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2106140494187988</v>
+        <v>0.208309625088421</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2179043441624486</v>
+        <v>0.2184306234886811</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>149782</v>
+        <v>152624</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>193020</v>
+        <v>197779</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>217705</v>
+        <v>218524</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>135993</v>
+        <v>134901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>373935</v>
+        <v>372808</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>369960</v>
+        <v>369386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>364210</v>
+        <v>363841</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>213401</v>
+        <v>213473</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>539110</v>
+        <v>539129</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>578030</v>
+        <v>580582</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>594643</v>
+        <v>601273</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>358734</v>
+        <v>365810</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>195532</v>
+        <v>197816</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>249239</v>
+        <v>252055</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>272182</v>
+        <v>271147</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>178198</v>
+        <v>177150</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>434244</v>
+        <v>436689</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>436369</v>
+        <v>434796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>433462</v>
+        <v>431934</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>254948</v>
+        <v>255806</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>614154</v>
+        <v>612128</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>663156</v>
+        <v>665863</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>688103</v>
+        <v>687794</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>419414</v>
+        <v>423016</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>139745</v>
+        <v>137173</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>131719</v>
+        <v>132440</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108207</v>
+        <v>105830</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>163415</v>
+        <v>164808</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>247467</v>
+        <v>251507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>263635</v>
+        <v>262220</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>184198</v>
+        <v>185092</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>290072</v>
+        <v>287274</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>394797</v>
+        <v>401632</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>408643</v>
+        <v>403027</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>305937</v>
+        <v>306793</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>464868</v>
+        <v>466320</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>185740</v>
+        <v>183112</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>179774</v>
+        <v>180100</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>150481</v>
+        <v>148503</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>214002</v>
+        <v>214982</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>304579</v>
+        <v>308512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>323406</v>
+        <v>323609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>241394</v>
+        <v>239791</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>336747</v>
+        <v>336052</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>474694</v>
+        <v>471599</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>486456</v>
+        <v>482497</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>372091</v>
+        <v>375692</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>536382</v>
+        <v>536744</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>105563</v>
+        <v>103286</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>111681</v>
+        <v>110320</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>79234</v>
+        <v>79799</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>121627</v>
+        <v>122269</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>184612</v>
+        <v>184052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>147814</v>
+        <v>148812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>128959</v>
+        <v>128441</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>194610</v>
+        <v>195592</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>300314</v>
+        <v>299511</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>268883</v>
+        <v>270545</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>218284</v>
+        <v>219107</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>329587</v>
+        <v>327250</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>145015</v>
+        <v>144262</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156332</v>
+        <v>156050</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>115479</v>
+        <v>116833</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>163346</v>
+        <v>165803</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>239477</v>
+        <v>236681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>195818</v>
+        <v>198996</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>175733</v>
+        <v>174080</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>237044</v>
+        <v>239595</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>367788</v>
+        <v>370176</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>337813</v>
+        <v>334014</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>280387</v>
+        <v>281578</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>389151</v>
+        <v>388271</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31017</v>
+        <v>31422</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46429</v>
+        <v>47402</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45313</v>
+        <v>45069</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101076</v>
+        <v>100943</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36152</v>
+        <v>37855</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>64586</v>
+        <v>65886</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65686</v>
+        <v>65737</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118252</v>
+        <v>119195</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>76912</v>
+        <v>74859</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>120702</v>
+        <v>120970</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>121834</v>
+        <v>120507</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>229715</v>
+        <v>228696</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56080</v>
+        <v>55263</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>77980</v>
+        <v>79358</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75329</v>
+        <v>75044</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144240</v>
+        <v>143278</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63814</v>
+        <v>64374</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99310</v>
+        <v>100188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>100772</v>
+        <v>99771</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>152148</v>
+        <v>152769</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>114039</v>
+        <v>111009</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>169064</v>
+        <v>167146</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>166945</v>
+        <v>166084</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>283515</v>
+        <v>281535</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>457908</v>
+        <v>460911</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>522279</v>
+        <v>520228</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>487678</v>
+        <v>489587</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>567891</v>
+        <v>560501</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>886109</v>
+        <v>886669</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>888954</v>
+        <v>889159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>786487</v>
+        <v>789928</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>856569</v>
+        <v>853775</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1373205</v>
+        <v>1362313</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1444639</v>
+        <v>1442252</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1296181</v>
+        <v>1299136</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1442747</v>
+        <v>1439948</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>540164</v>
+        <v>545942</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>618058</v>
+        <v>613672</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>569734</v>
+        <v>574827</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>649255</v>
+        <v>648263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>986142</v>
+        <v>987294</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>998779</v>
+        <v>996217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>895832</v>
+        <v>890170</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>942459</v>
+        <v>938270</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1513087</v>
+        <v>1501050</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1588145</v>
+        <v>1578631</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1449869</v>
+        <v>1434006</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1564131</v>
+        <v>1567909</v>
       </c>
     </row>
     <row r="24">
